--- a/SourceDataTables/FigS4.xlsx
+++ b/SourceDataTables/FigS4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="7">
   <si>
     <t>FigS4_xdata</t>
   </si>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -66,16 +66,40 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,25 +122,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
     </row>

--- a/SourceDataTables/FigS4.xlsx
+++ b/SourceDataTables/FigS4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="7">
   <si>
     <t>FigS4_xdata</t>
   </si>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -78,11 +78,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -100,6 +104,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,25 +130,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
     </row>
